--- a/datasets/NSW_mental_health.xlsx
+++ b/datasets/NSW_mental_health.xlsx
@@ -1,82 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\applications\SuperSTAR2\C447\Tables\Development\Mental Health and Wellbeing (Survey of)\Pooled (2020-22)\DATACUBES\Tables NSW\Fin Table Fixes 18 09 23\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A0219-40C5-4A4A-9A31-4571FA1472BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{239608A3-7B5B-4768-A3C3-B39328F10BEA}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Contents" sheetId="2" r:id="rId1"/>
-    <sheet name="Table 1.1 Estimates" sheetId="3" r:id="rId2"/>
-    <sheet name="Table 1.2 RSEs" sheetId="4" r:id="rId3"/>
-    <sheet name="Table 1.3 Proportions" sheetId="5" r:id="rId4"/>
-    <sheet name="Table 1.4 MoEs" sheetId="6" r:id="rId5"/>
-    <sheet name="Table 2.1 Estimates" sheetId="7" r:id="rId6"/>
-    <sheet name="Table 2.2 RSEs" sheetId="8" r:id="rId7"/>
-    <sheet name="Table 2.3 Proportions" sheetId="9" r:id="rId8"/>
-    <sheet name="Table 2.4 MoEs" sheetId="10" r:id="rId9"/>
-    <sheet name="Table 3.1 Estimates" sheetId="11" r:id="rId10"/>
-    <sheet name="Table 3.2 RSEs" sheetId="12" r:id="rId11"/>
-    <sheet name="Table 3.3 Proportions" sheetId="13" r:id="rId12"/>
-    <sheet name="Table 3.4 MoEs" sheetId="14" r:id="rId13"/>
-    <sheet name="Table 4.1 Estimates" sheetId="15" r:id="rId14"/>
-    <sheet name="Table 4.2 RSEs" sheetId="16" r:id="rId15"/>
-    <sheet name="Table 4.3 Proportions" sheetId="17" r:id="rId16"/>
-    <sheet name="Table 4.4 MoEs" sheetId="18" r:id="rId17"/>
-    <sheet name="Table 5.1 Estimates" sheetId="19" r:id="rId18"/>
-    <sheet name="Table 5.2 RSEs" sheetId="20" r:id="rId19"/>
-    <sheet name="Table 5.3 Proportions" sheetId="21" r:id="rId20"/>
-    <sheet name="Table 5.4 MoEs" sheetId="22" r:id="rId21"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_AMO_UniqueIdentifier" hidden="1">"'3a04a3ef-8af1-40be-945d-6079cf21e0d2'"</definedName>
-    <definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.4 MoEs'!$A$1:$E$13</definedName>
-    <definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.4 MoEs'!$A$1:$D$42</definedName>
-    <definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.4 MoEs'!$A$1:$D$38</definedName>
-    <definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.4 MoEs'!$A$1:$D$36</definedName>
-    <definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.4 MoEs'!$A$1:$B$65</definedName>
-    <definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.1 Estimates'!$A$1:$E$13</definedName>
-    <definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D43.">'Table 3.1 Estimates'!$A$1:$D$43</definedName>
-    <definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.1 Estimates'!$A$1:$D$38</definedName>
-    <definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.1 Estimates'!$A$1:$D$36</definedName>
-    <definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.1 Estimates'!$A$1:$B$65</definedName>
-    <definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.3 Proportions'!$A$1:$E$13</definedName>
-    <definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.3 Proportions'!$A$1:$D$42</definedName>
-    <definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.3 Proportions'!$A$1:$D$38</definedName>
-    <definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.3 Proportions'!$A$1:$D$36</definedName>
-    <definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.3 Proportions'!$A$1:$B$65</definedName>
-    <definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.2 RSEs'!$A$1:$E$13</definedName>
-    <definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.2 RSEs'!$A$1:$D$42</definedName>
-    <definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.2 RSEs'!$A$1:$D$38</definedName>
-    <definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.2 RSEs'!$A$1:$D$36</definedName>
-    <definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.2 RSEs'!$A$1:$B$65</definedName>
-    <definedName name="This_tab_outlines_the_contents_of_the_datacube_for_New_South_Wales._It_ranges_from_cell_A1_to_B33.">Contents!$A$1:$B$33</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+<ns0:workbook xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns2="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:ns3="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:ns4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:ns5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:ns6="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:ns7="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns8="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:ns9="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" ns1:Ignorable="x15 xr xr6 xr10 xr2">
+  <ns0:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <ns0:workbookPr defaultThemeVersion="166925"/>
+  <ns1:AlternateContent>
+    <ns1:Choice Requires="x15">
+      <ns2:absPath url="\\corp\absdfs\applications\SuperSTAR2\C447\Tables\Development\Mental Health and Wellbeing (Survey of)\Pooled (2020-22)\DATACUBES\Tables NSW\Fin Table Fixes 18 09 23\"/>
+    </ns1:Choice>
+  </ns1:AlternateContent>
+  <ns3:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A0219-40C5-4A4A-9A31-4571FA1472BF}" ns4:coauthVersionLast="47" ns4:coauthVersionMax="47" ns5:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <ns0:bookViews>
+    <ns0:workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" ns6:uid="{239608A3-7B5B-4768-A3C3-B39328F10BEA}"/>
+  </ns0:bookViews>
+  <ns0:sheets>
+    <ns0:sheet name="Contents" sheetId="2" ns7:id="rId1"/>
+    <ns0:sheet name="Table 1.1 Estimates" sheetId="3" ns7:id="rId2"/>
+    <ns0:sheet name="Table 1.3 Proportions" sheetId="5" ns7:id="rId4"/>
+    <ns0:sheet name="Table 2.1 Estimates" sheetId="7" ns7:id="rId6"/>
+    <ns0:sheet name="Table 2.3 Proportions" sheetId="9" ns7:id="rId8"/>
+    <ns0:sheet name="Table 3.1 Estimates" sheetId="11" ns7:id="rId10"/>
+    <ns0:sheet name="Table 3.3 Proportions" sheetId="13" ns7:id="rId12"/>
+    <ns0:sheet name="Table 4.1 Estimates" sheetId="15" ns7:id="rId14"/>
+    <ns0:sheet name="Table 4.3 Proportions" sheetId="17" ns7:id="rId16"/>
+    <ns0:sheet name="Table 5.1 Estimates" sheetId="19" ns7:id="rId18"/>
+    <ns0:sheet name="Table 5.3 Proportions" sheetId="21" ns7:id="rId20"/>
+  </ns0:sheets>
+  <ns0:definedNames>
+    <ns0:definedName name="_AMO_UniqueIdentifier" hidden="1">"'3a04a3ef-8af1-40be-945d-6079cf21e0d2'"</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.4 MoEs'!$A$1:$E$13</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.4 MoEs'!$A$1:$D$42</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.4 MoEs'!$A$1:$D$38</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.4 MoEs'!$A$1:$D$36</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_95_percent_Margin_of_Error_of_proportion_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.4 MoEs'!$A$1:$B$65</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.1 Estimates'!$A$1:$E$13</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D43.">'Table 3.1 Estimates'!$A$1:$D$43</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.1 Estimates'!$A$1:$D$38</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.1 Estimates'!$A$1:$D$36</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Estimate_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.1 Estimates'!$A$1:$B$65</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.3 Proportions'!$A$1:$E$13</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.3 Proportions'!$A$1:$D$42</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.3 Proportions'!$A$1:$D$38</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.3 Proportions'!$A$1:$D$36</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Proportion_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.3 Proportions'!$A$1:$B$65</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_age._It_ranges_from_cell_A1_to_E13.">'Table 4.2 RSEs'!$A$1:$E$13</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_12_month_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D42.">'Table 3.2 RSEs'!$A$1:$D$42</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_and_12_month_mental_disorder_groups_by_sex._It_ranges_from_cell_A1_to_D38.">'Table 1.2 RSEs'!$A$1:$D$38</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Lifetime_mental_disorders_by_sex._It_ranges_from_cell_A1_to_D36.">'Table 2.2 RSEs'!$A$1:$D$36</ns0:definedName>
+    <ns0:definedName name="This_tab_has_one_table_with_Relative_Standard_Error_of_estimate_of_Persons_16–85_years_in_New_South_Wales_Selected_health_characteristics._It_ranges_from_cell_A1_to_B65.">'Table 5.2 RSEs'!$A$1:$B$65</ns0:definedName>
+    <ns0:definedName name="This_tab_outlines_the_contents_of_the_datacube_for_New_South_Wales._It_ranges_from_cell_A1_to_B33.">Contents!$A$1:$B$33</ns0:definedName>
+  </ns0:definedNames>
+  <ns0:calcPr calcId="191029"/>
+  <ns0:extLst>
+    <ns0:ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <ns8:workbookPr chartTrackingRefBase="1"/>
+    </ns0:ext>
+    <ns0:ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <ns9:calcFeatures>
+        <ns9:feature name="microsoft.com:RD"/>
+        <ns9:feature name="microsoft.com:Single"/>
+        <ns9:feature name="microsoft.com:FV"/>
+        <ns9:feature name="microsoft.com:CNMTM"/>
+        <ns9:feature name="microsoft.com:LET_WF"/>
+        <ns9:feature name="microsoft.com:LAMBDA_WF"/>
+        <ns9:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </ns9:calcFeatures>
+    </ns0:ext>
+  </ns0:extLst>
+</ns0:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
